--- a/config/excel/SkillTimeLine.xlsx
+++ b/config/excel/SkillTimeLine.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B5BAC2-6553-4F7F-B30E-26A4B51ED69D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F872E98A-38D2-4AAC-B273-D93663D92548}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +229,6 @@
   </si>
   <si>
     <t>是否弹道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是弹道的类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -335,6 +327,93 @@
   </si>
   <si>
     <t>track类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_xuli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是
+弹道的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击特效1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击动作2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击特效2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作特效1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作特效2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作特效3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击点1</t>
+  </si>
+  <si>
+    <t>受击点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击点2</t>
+  </si>
+  <si>
+    <t>受击点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1_slash3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,9 +611,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,36 +652,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -675,7 +739,9 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -693,6 +759,42 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -919,25 +1021,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:R13" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="C1:R13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Track" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="开始时间" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="类型" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="effect顺序" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="持续时间" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="是否弹道" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道初始位置" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹速度" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="前摇动作" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="表演ID" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="后摇动作" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="插槽ID" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="被击动作编号" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="受击特效" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:S25" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="C1:S25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Track" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4CDA5D04-3848-4AD2-907F-0C416ED9980B}" name="备注" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="类型" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="effect顺序" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="开始时间" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="持续时间" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="是否弹道" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道初始位置" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹速度" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="前摇动作" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="表演ID" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="后摇动作" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="插槽ID" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="被击动作编号" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="受击特效" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1206,31 +1309,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.625" style="1"/>
-    <col min="6" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.625" style="1"/>
-    <col min="13" max="13" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.625" style="1"/>
-    <col min="16" max="16" width="15.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="1"/>
-    <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
-    <col min="19" max="21" width="10.625" style="1"/>
-    <col min="22" max="22" width="15.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.625" style="1"/>
+    <col min="1" max="6" width="10.625" style="1"/>
+    <col min="7" max="8" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="1"/>
+    <col min="15" max="15" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.625" style="1"/>
+    <col min="18" max="18" width="15.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.75" style="1" customWidth="1"/>
+    <col min="21" max="23" width="10.625" style="1"/>
+    <col min="24" max="24" width="15.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,347 +1344,362 @@
       <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="17" t="s">
+      <c r="H4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="N4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="L6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.5</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>1001</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.5</v>
+      <c r="E8" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.8</v>
+      </c>
       <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>1001</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.76700000000000002</v>
+      <c r="E9" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
@@ -1588,89 +1707,102 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.53300000000000003</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>1002</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
+      <c r="E10" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.4</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>1002</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.5</v>
+      <c r="E11" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.46699999999999986</v>
+      </c>
       <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>1002</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.76700000000000002</v>
+      <c r="E12" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -1678,38 +1810,383 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.56699999999999995</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2.8330000000000002</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C15" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C17" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="17"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="17"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.833</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="S20" s="17"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTimeLine.xlsx
+++ b/config/excel/SkillTimeLine.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZJ\worksapce\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03DA0B4-D489-4897-9FDF-DAEE264AADBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,9 +183,6 @@
   <si>
     <t>hitStopTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
   </si>
   <si>
     <t>int32</t>
@@ -269,14 +267,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列5</t>
-  </si>
-  <si>
     <t>弹道速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列42</t>
   </si>
   <si>
     <t>子弹特效</t>
@@ -310,13 +302,30 @@
   <si>
     <t>固定范围是受击的时间点
 单体弹道是发出的时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表演类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能释放者
+动作名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -850,23 +859,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C1:P10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="C1:P10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:P10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="C1:P10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="TimeLineID" dataDxfId="13"/>
-    <tableColumn id="3" name="列1" dataDxfId="12"/>
-    <tableColumn id="9" name="持续时间" dataDxfId="11"/>
-    <tableColumn id="15" name="表演ID" dataDxfId="10"/>
-    <tableColumn id="24" name="施法特效" dataDxfId="9"/>
-    <tableColumn id="13" name="列42" dataDxfId="8"/>
-    <tableColumn id="11" name="列5" dataDxfId="7"/>
-    <tableColumn id="4" name="effect时间点" dataDxfId="6"/>
-    <tableColumn id="6" name="effect顺序2" dataDxfId="5"/>
-    <tableColumn id="12" name="被击动作编号" dataDxfId="4"/>
-    <tableColumn id="22" name="受击特效" dataDxfId="3"/>
-    <tableColumn id="23" name="插槽ID" dataDxfId="2"/>
-    <tableColumn id="2" name="被击顿帧" dataDxfId="1"/>
-    <tableColumn id="5" name="击退距离" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="表演类型" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="被击顿帧" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1134,21 +1143,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.625" style="1"/>
-    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.125" style="1" customWidth="1"/>
     <col min="12" max="13" width="15.625" style="1" customWidth="1"/>
@@ -1173,7 +1182,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>22</v>
@@ -1185,16 +1194,16 @@
         <v>10</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>17</v>
@@ -1209,7 +1218,7 @@
         <v>38</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1218,28 +1227,28 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>26</v>
@@ -1251,10 +1260,10 @@
         <v>32</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1265,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>23</v>
@@ -1277,16 +1286,16 @@
         <v>19</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>25</v>
@@ -1295,13 +1304,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -1312,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>22</v>
@@ -1321,15 +1330,15 @@
         <v>21</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>26</v>
@@ -1341,10 +1350,10 @@
         <v>31</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1374,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>14</v>
@@ -1386,19 +1395,19 @@
         <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>35</v>
@@ -1424,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1498,10 +1507,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>

--- a/config/excel/SkillTimeLine.xlsx
+++ b/config/excel/SkillTimeLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03DA0B4-D489-4897-9FDF-DAEE264AADBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145D0981-04DF-4C40-8609-97C5C8AFADC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>施法特效表现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被击动作编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能释放者动作名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受击特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机特效插槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TimeLineID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,12 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特效名称
-做到一个文件里
-直接挂在人身上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,13 +263,6 @@
   <si>
     <t>bulletSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_com_move_select</t>
   </si>
   <si>
     <t>击退距离</t>
@@ -300,11 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固定范围是受击的时间点
-单体弹道是发出的时间点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子弹特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +289,102 @@
   <si>
     <t>技能释放者
 动作名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-普攻2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法特效
+表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定范围-是
+受击的时间点
+单体弹道-是
+发出的时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗逻辑eff
+生效时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能为多个
+做到一个文件里
+直接挂在人身上
+或武器上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_merlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-技能4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -483,11 +549,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,12 +624,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -859,23 +959,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:P10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="C1:P10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="表演类型" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="被击顿帧" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:Q22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="C1:Q22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="表演类型" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="被击顿帧" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1144,34 +1245,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="15.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="1"/>
+    <col min="1" max="4" width="10.625" style="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="15.625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,191 +1279,197 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="D2" s="20"/>
       <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="18"/>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>51</v>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1372,190 +1478,400 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="14"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="D7" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
         <v>0.2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="1">
+        <v>17</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="1">
         <v>0.2</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
-        <v>1002</v>
-      </c>
-      <c r="D8" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="P8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="1">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C9" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C10" s="4">
+        <v>2004</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="1">
         <v>0.2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C9" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="4">
-        <v>1004</v>
-      </c>
-      <c r="D10" s="4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="2"/>
+      <c r="F13" s="2">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C15" s="4">
+        <v>3004</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTimeLine.xlsx
+++ b/config/excel/SkillTimeLine.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145D0981-04DF-4C40-8609-97C5C8AFADC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F01C92-FD07-4509-9E06-7F93CBB395CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="128">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被击顿帧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hitStopTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>受击停顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,10 +242,6 @@
   </si>
   <si>
     <t>弹道速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -385,6 +373,174 @@
   </si>
   <si>
     <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼白-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash2</t>
+  </si>
+  <si>
+    <t>bak1</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>蝙蝠-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方进行攻击的过程中，攻击方和受击方同时暂停的时长，其他的单位不受影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击停帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击方在受击时，切成受击状态的时间，受击单位的COM会静止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitHurtTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤状态的持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_daoguang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹特效
+以模型外圈
+作为起始点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_daoguang_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼白-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击动作
+单体弹道的受击时间为物理碰撞的时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-技能4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_merlin</t>
+  </si>
+  <si>
+    <t>Fx_attack_bullet</t>
+  </si>
+  <si>
+    <t>弹道起始偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道从模型的正前方
+偏移距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道的起始
+高度偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,108 +787,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="23">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -766,7 +832,104 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -817,9 +980,7 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -853,6 +1014,25 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color theme="0"/>
@@ -863,6 +1043,38 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -959,24 +1171,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:Q22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="C1:Q22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="表演类型" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="被击顿帧" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:T27" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="C1:T27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="表演类型" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{05C48C32-C296-4A34-BC9C-0D52C9414CA3}" name="受伤状态" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="受击停帧" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1245,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1259,19 +1474,23 @@
     <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="15.625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.625" style="1"/>
+    <col min="11" max="11" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="15.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,10 +1501,10 @@
         <v>30</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>21</v>
@@ -1297,80 +1516,98 @@
         <v>10</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="20"/>
       <c r="E2" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +1616,7 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>22</v>
@@ -1391,34 +1628,43 @@
         <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1673,7 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>21</v>
@@ -1436,33 +1682,38 @@
         <v>20</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>25</v>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1479,10 +1730,13 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +1745,7 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>14</v>
@@ -1503,375 +1757,739 @@
         <v>12</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="R6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="T6" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
-        <v>2001</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="2">
         <v>0.2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="S7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
-        <v>2002</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
+        <v>1002</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>4.633</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C9" s="4">
-        <v>2003</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C10" s="4">
-        <v>2004</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
+      <c r="M9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C11" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="M10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C11" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="2">
-        <v>3</v>
+      <c r="F11" s="4">
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C12" s="2">
-        <v>3001</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C12" s="4">
+        <v>2004</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="2">
-        <v>10</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
-        <v>3002</v>
+        <v>2005</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2">
         <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>3.8330000000000002</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="2">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C15" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
         <v>3003</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C15" s="4">
-        <v>3004</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C17" s="4">
+        <v>3004</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <v>4001</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="2">
+        <v>10</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>4002</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C20" s="2">
+        <v>5001</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.167</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="13"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="M20" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
+        <v>6001</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <v>6002</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C24" s="2">
+        <v>8001</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="2">
+        <v>10</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <v>8002</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <v>8003</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C27" s="4">
+        <v>8004</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTimeLine.xlsx
+++ b/config/excel/SkillTimeLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F01C92-FD07-4509-9E06-7F93CBB395CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F5CA3A-E53B-4096-8B26-B1F58200B687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -798,7 +798,104 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -832,104 +929,7 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1182,16 +1182,16 @@
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="12"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="11"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{05C48C32-C296-4A34-BC9C-0D52C9414CA3}" name="受伤状态" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="受击停帧" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{05C48C32-C296-4A34-BC9C-0D52C9414CA3}" name="受伤状态" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="受击停帧" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1953,6 +1953,9 @@
       <c r="S10" s="1">
         <v>0.2</v>
       </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
@@ -2206,9 +2209,6 @@
       <c r="S18" s="1">
         <v>0.2</v>
       </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
@@ -2269,9 +2269,14 @@
       <c r="Q20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2">
+        <v>0.2</v>
+      </c>
       <c r="S20" s="1">
         <v>0.2</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.2">
@@ -2333,9 +2338,14 @@
       <c r="Q22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2">
+        <v>0.2</v>
+      </c>
       <c r="S22" s="1">
         <v>0.2</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
@@ -2393,7 +2403,7 @@
         <v>1.2</v>
       </c>
       <c r="M24" s="2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -2407,7 +2417,9 @@
       <c r="Q24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2">
+        <v>0.2</v>
+      </c>
       <c r="S24" s="1">
         <v>0.2</v>
       </c>

--- a/config/excel/SkillTimeLine.xlsx
+++ b/config/excel/SkillTimeLine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F5CA3A-E53B-4096-8B26-B1F58200B687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2A4C8F-3486-4AF0-A824-AD97B0E424FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,12 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_attack_merlin</t>
-  </si>
-  <si>
-    <t>Fx_attack_bullet</t>
-  </si>
-  <si>
     <t>弹道起始偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,6 +535,14 @@
   <si>
     <t>弹道的起始
 高度偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk_xuli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1462,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1522,10 +1524,10 @@
         <v>61</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>48</v>
@@ -1577,10 +1579,10 @@
         <v>55</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>71</v>
@@ -1634,10 +1636,10 @@
         <v>57</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>49</v>
@@ -1763,10 +1765,10 @@
         <v>51</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>51</v>
@@ -2379,31 +2381,23 @@
         <v>112</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>2.3330000000000002</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="2">
-        <v>10</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1.2</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -2412,7 +2406,7 @@
         <v>17</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>34</v>
